--- a/YMODEM/ymodem上位机发送数据.xlsx
+++ b/YMODEM/ymodem上位机发送数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0_ZQ_DACHI_Info\CodeLIb\Working accumulation code\YMODEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E27E89-BA0F-4761-80F0-5E2AEC247CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64403D55-BB19-44DC-842D-770DF6BA7F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16965" yWindow="975" windowWidth="18105" windowHeight="18555" xr2:uid="{82AB724E-D781-4B1D-917E-8E3F9F7DB144}"/>
+    <workbookView xWindow="2610" yWindow="1200" windowWidth="23805" windowHeight="18555" xr2:uid="{82AB724E-D781-4B1D-917E-8E3F9F7DB144}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>01 00 FF 62 6C 61 6E 6B 2E 62 69 6E 00 34 30 39 36 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 BD E9 02 03 FC FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF C0 84 02 04 FB FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF C0 84 04 04 01 00 FF 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,34 @@
   </si>
   <si>
     <t xml:space="preserve">43 06 43 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 06 15 06 43 06 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准ymodem数据流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割线=============================================================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝永科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下位机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43 06….06 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">01 00 FF 44 43 5F 43 4F 53 4D 45 54 49 43 5F 49 4E 53 54 52 55 4D 45 4E 54 2E 62 69 6E 00 35 38 33 36 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 04 47 02 01 FE 38 2A 00 20 95 41 00 08 C9 46 00 08 B1 46 00 08 C5 46 00 08 ED 43 00 08 73 4E 00 08 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 C9 49 00 08 ED 44 00 08 00 00 00 00 79 47 00 08 51 4B 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 5D 44 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 E1 4B 00 08 01 4C 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 69 4C 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 21 4C 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 AF 41 00 08 DF F8 10 D0 00 F0 8C F8 00 48 00 47 39 53 00 08 AF F3 00 80 38 2A 00 20 06 48 80 47 06 48 00 47 FE E7 FE E7 FE E7 FE E7 FE E7 FE E7 FE E7 FE E7 FE E7 FE E7 5D 4B 00 08 7D 41 00 08 D2 B2 01 E0 00 F8 01 2B 49 1E FB D2 70 47 00 22 F6 E7 10 B5 13 46 0A 46 04 46 19 46 FF F7 F0 FF 20 46 10 BD CA B2 40 1E 10 F8 01 1F 8A 42 02 D0 00 29 F9 D1 00 20 70 47 42 1C 10 F8 01 1B 00 29 FB D1 80 1A 70 47 10 B5 00 22 00 E0 52 1C 83 5C 8C 5C A3 42 01 D1 00 2B F8 D1 D8 B2 E1 B2 40 1A 10 BD 03 46 11 F8 01 2B 00 F8 01 2B 00 2A F9 D1 18 46 70 47 70 B5 0F 4D 00 B9 28 68 00 24 12 E0 0A 46 02 E0 9E 42 03 D0 52 1C 13 78 00 2B F9 D1 DA B2 22 43 05 D0 2B B1 24 B1 00 21 00 F8 01 1B 04 E0 04 46 40 1C 06 78 00 2E E9 D1 28 60 20 46 70 BD 00 00 5C 00 00 20 30 B5 0B 46 01 46 00 20 20 22 01 24 09 E0 21 FA 02 F5 9D 42 05 D3 03 FA 02 F5 49 1B 04 FA 02 F5 28 44 15 1E A2 F1 01 02 F1 DC 30 BD 06 4C 07 4D 06 E0 E0 68 40 F0 01 03 94 E8 07 00 98 47 10 34 AC 42 F6 D3 FF F7 66 FF 40 56 00 08 60 56 00 08 70 47 00 00 10 B5 86 B0 00 F0 48 FB 4F F4 40 70 00 F0 34 FA 0A 20 00 F0 F3 FB 1B 48 00 F0 10 FE 1A A3 1C A2 1E A1 21 A0 00 F0 16 FE 01 A8 00 F0 75 FA 24 49 01 98 B0 FB F1 F4 21 46 22 A0 00 F0 0B FE 20 49 02 98 B0 FB F1 F4 21 46 23 A0 00 F0 03 FE 1C 49 03 98 B0 FB F1 F4 21 46 24 A0 00 F0 FB FD 18 49 04 98 B0 FB F1 F4 21 46 25 A0 00 F0 F3 FD 14 49 05 98 B0 FB F1 F4 21 46 26 A0 00 F0 EB FD 01 20 06 B0 10 BD 00 55 00 08 56 31 2E 30 00 00 00 00 31 36 3A 30 32 3A 32 36 00 00 00 00 4D 61 72 20 20 31 20 32 30 32 33 00 25 73 20 25 73 0D 0A 20 76 65 72 73 69 6F 6E 73 3A 25 73 0D 0A 00 00 00 40 42 0F 00 53 59 53 43 4C 4B 5F 46 72 65 71 3A 25 64 4D 0D 0A 00 00 00 41 48 42 43 4C 4B 5F 46 72 65 71 3A 25 64 4D 0D 0A 00 00 00 41 50 42 31 43 4C 4B 5F 46 72 65 71 3A 25 64 4D 0D 0A 00 00 41 50 42 32 43 4C 4B 5F 46 72 65 71 3A 25 64 4D 0D 0A 00 00 41 44 43 43 4C 4B 5F 46 72 65 71 3A 25 64 4D 0D 0A 00 00 00 00 BF FE E7 F8 B5 04 46 0D 46 00 20 00 90 8D F8 00 50 1E 21 6A 5B 02 02 FD 13 48 FF F7 E0 FE 21 46 11 48 FF F7 06 FF 69 46 0F 48 FF F7 0B FF 06 46 06 B9 F8 BD 29 46 20 46 FF F7 DC FE 0B 49 08 60 08 46 00 68 18 B1 08 46 00 68 40 1C 08 60 00 20 07 49 08 70 30 46 00 F0 21 FF 1E 21 02 48 FF F7 BE FE 00 BF E5 E7 00 00 14 02 00 20 1C 00 00 20 3E 00 00 20 10 B5 00 21 08 48 00 F0 13 F8 02 20 00 F0 2A F8 28 B1 06 48 00 68 80 47 02 20 00 F0 15 F8 01 21 01 48 00 F0 05 F8 10 BD 08 00 02 40 50 00 00 20 21 B1 02 68 42 F0 01 02 02 60 04 E0 02 68 4F F6 FE 73 1A 40 02 60 70 47 00 F0 80 51 11 B1 03 49 08 60 01 E0 02 49 48 60 70 47 00 00 04 04 02 40 00 00 02 40 01 46 00 20 00 22 01 F0 80 53 13 B1 05 4B 1A 68 01 E0 05 4B 1A 68 02 EA 01 03 0B B1 01 20 00 E0 00 20 70 47 00 04 02 40 00 00 02 40 70 47 00 00 00 B5 01 46 B1 F5 80 3F 02 DB 4F F6 FF 71 05 E0 09 48 00 88 81 42 01 DA 07 48 01 88 00 F0 CA F8 02 46 00 BF 00 F0 C6 F8 80 1A 03 4B 1B 88 58 43 88 42 F7 D3 00 BD 00 00 18 00 00 20 01 48 00 68 70 47 00 00 4C 00 00 20 02 48 00 68 40 1C 01 49 08 60 70 47 4C 00 00 20 00 B5 02 46 FF F7 EE FF 03 46 98 1A 88 42 01 D9 01 20 00 BD 00 20 FC E7 04 46 0D 46 16 46 33 46 2A 46 21 46 02 A0 00 F0 D3 FC 00 BF FE E7 00 00 65 72 72 6F 72 3A 25 73 2C 25 73 2C 25 64 0D 0A 00 00 00 00 2D E9 F0 41 02 46 00 25 00 26 00 20 00 23 00 24 00 27 91 F8 03 C0 0C F0 0F 05 91 F8 03 C0 0C F0 10 0C BC F1 00 0F 03 D0 91 F8 02 C0 4C EA 05 05 91 F8 00 C0 BC F1 00 0F 31 D0 14 68 00 20 2B E0 4F F0 01 0C 0C FA 00 F3 B1 F8 00 C0 0C EA 03 06 9E 42 20 D1 83 00 4F F0 0F 0C 0C FA 03 F7 BC 43 05 FA 03 FC 4C EA 04 04 91 F8 03 C0 BC F1 28 0F 06 D1 4F F0 01 0C 0C FA 00 FC C2 F8 14 C0 0A E0 91 F8 03 C0 BC F1 48 0F 05 D1 4F F0 01 0C 0C FA 00 FC C2 F8 10 C0 40 1C 08 28 D1 D3 14 60 B1 F8 00 C0 BC F1 FF 0F 34 DD 54 68 00 20 2E E0 00 F1 08 0C 4F F0 01 08 08 FA 0C F3 B1 F8 00 C0 0C EA 03 06 9E 42 21 D1 83 00 4F F0 0F 0C 0C FA 03 F7 BC 43 05 FA 03 FC 4C EA 04 04 91 F8 03 C0 BC F1 28 0F 05 D1 00 F1 08 0C 08 FA 0C F8 C2 F8 14 80 91 F8 03 C0 BC F1 48 0F 07 D1 00 F1 08 0C 4F F0 01 08 08 FA 0C F8 C2 F8 10 80 40 1C 08 28 CE D3 54 60 BD E8 F0 81 00 00 01 48 00 68 70 47 00 00 14 00 00 20 00 BF FE E7 02 48 00 68 40 1C 01 49 08 60 70 47 14 00 00 20 00 BF FE E7 70 47 00 00 70 B5 00 21 00 23 0F 22 C4 78 04 B3 15 4C 24 68 04 F4 E0 64 C4 F5 E0 64 21 0A C1 F1 04 03 CA 40 44 78 04 FA 03 F1 84 78 14 40 21 43 09 01 0E 4C 06 78 A1 55 04 78 04 F0 1F 05 01 24 AC 40 05 78 6D 11 AD 00 05 F1 E0 25 C5 F8 00 41 09 E0 04 78 04 F0 1F 05 01 24 AC 40 04 4D 06 78 76 11 45 F8 26 40 70 BD 0C ED 00 E0 00 E4 00 E0 80 E1 00 E0 02 49 01 43 02 4A 11 60 70 47 00 00 00 00 FA 05 0C ED 00 E0 10 B5 00 28 07 DA 0A 07 14 0E 05 4A 00 F0 0F 03 1B 1F D4 54 03 E0 0A 07 13 0E 02 4A 13 54 10 BD 18 ED 00 E0 00 E4 00 E0 70 47 00 00 29 B1 06 4A 52 69 02 43 04 4B 5A 61 04 E0 03 4A 52 69 82 43 01 4B 5A 61 70 47 00 00 00 10 02 40 29 B1 06 4A D2 69 02 43 04 4B DA 61 04 E0 03 4A D2 69 82 43 01 4B DA 61 70 47 00 00 00 10 02 40 29 B1 06 4A 92 69 02 43 04 4B 9A 61 04 E0 03 4A 92 69 82 43 01 4B 9A 61 70 47 00 00 00 10 02 40 F0 B5 00 24 00 22 00 21 00 25 00 23 4C 4E 76 68 06 F0 0C 02 22 B1 04 2A 05 D0 08 2A 46 D1 05 E0 48 4E 06 60 88 69 02 03 FC 45 E0 47 4E 06 60 42 E0 44 4E 76 68 06 F4 80 35 42 4E 76 68 43 4F 06 EA 07 01 01 F0 C0 46 36 B9 01 F4 70 16 B6 F5 70 1F 01 D0 02 26 00 E0 01 26 01 F0 C0 47 C1 F3 83 4C 4C EA 57 67 F1 19 1D B9 39 4E 4E 43 06 60 13 E0 34 4E 76 68 06 F4 00 36 5E B1 32 4E 76 6D 06 F4 40 54 24 0B A6 1C 30 4F B7 FB F6 F6 4E 43 06 60 02 E0 2D 4E 4E 43 06 60 2A 4E 76 68 06 F0 00 46 2E B9 2C 4F 06 68 BE 42 01 D9 3E 46 06 60 02 E0 25 4E 06 60 00 BF 00 BF 22 4E 76 68 C6 F3 02 12 20 4E 76 68 06 F0 80 06 16 B1 23 4E B6 5C 00 E0 00 26 33 46 06 68 DE 40 46 60 1A 4E 76 68 C6 F3 01 22 18 4E 76 68 06 F4 80 66 16 B1 1A 4E B6 5C 00 E0 00 26 33 46 46 68 DE 40 86 60 11 4E 76 68 C6 F3 C1 22 0F 4E 76 68 06 F4 00 56 16 B1 12 4E B6 5C 00 E0 00 26 33 46 46 68 DE 40 C6 60 09 4E 76 68 C6 F3 81 32 07 4E 76 68 06 F0 80 56 0E B1 42 F0 04 02 09 4E B3 5C C6 68 B6 FB F3 F6 06 61 F0 BD 00 00 00 10 02 40 00 12 7A 00 00 00 3C 60 00 09 3D 00 00 A2 4A 04 F0 54 00 08 F8 54 00 08 01 28 06 D1 06 49 49 6D 41 F0 30 01 04 4A 51 65 05 E0 03 49 49 6D 21 F0 30 01 01 4A 51 65 70 47 00 10 02 40 10 B5 01 21 08 46 FF F7 2B FF 01 21 04 20 FF F7 27 FF 01 21 08 20 FF F7 23 FF 01 21 10 20 FF F7 1F FF 01 21 20 20 FF F7 1B FF 01 21 40 20 FF F7 17 FF 01 21 88 03 FF F7 13 FF 01 21 48 02 FF F7 0F FF 01 21 88 02 FF F7 0B FF 01 21 08 46 FF F7 E7 FE 01 21 02 20 FF F7 F3 FE 01 21 20 20 FF F7 EF FE 01 21 C8 02 FF F7 EB FE 10 BD 70 47 10 B5 00 F0 02 F8 10 BD 00 00 1C B5 00 20 01 90 00 90 35 48 00 68 40 F0 01 00 33 49 08 60 00 BF 32 48 00 68 00 F0 02 00 00 90 01 98 40 1C 01 90 00 98 20 B9 4F F6 FF 71 01 98 88 42 F0 D1 2A 48 00 68 00 F0 02 00 10 B1 01 20 00 90 01 E0 00 20 00 90 00 98 01 28 47 D1 24 48 40 68 23 49 48 60 08 46 40 68 20 F4 60 50 48 60 08 46 40 68 40 F4 00 50 48 60 08 46 40 68 20 F4 E0 60 48 60 08 46 40 68 40 F4 80 60 48 60 08 46 40 68 18 49 08 40 16 49 48 60 08 46 40 68 16 49 08 43 13 49 48 60 08 46 00 68 40 F0 80 70 08 60 00 BF 0F 48 00 68 00 F0 00 70 00 28 F9 D0 01 20 FF F7 58 FF 0A 48 40 68 20 F0 03 00 08 49 48 60 08 46 40 68 40 F0 02 00 48 60 00 BF 04 48 40 68 00 F0 0C 00 08 28 F9 D1 00 20 FF F7 43 FF 1C BD 00 10 02 40 FF FF C0 1F 00 00 2C E0 70 B5 04 46 16 48 04 80 04 20 00 F0 2D F8 15 48 00 68 4F F4 7A 71 B0 FB F1 F0 60 43 45 1E B5 F1 80 7F 01 D3 00 BF FE E7 2E 46 70 1E B0 F1 80 7F 00 D3 0F E0 70 1E 4F F0 E0 21 48 61 0F 21 4F F0 FF 30 FF F7 25 FE 00 20 4F F0 E0 21 88 61 07 20 08 61 00 BF 00 21 48 1E FF F7 1A FE 70 BD 00 00 18 00 00 20 00 00 00 20 04 28 08 D1 4F F0 E0 21 09 69 41 F0 04 01 4F F0 E0 22 11 61 07 E0 4F F0 E0 21 09 69 21 F0 04 01 4F F0 E0 22 11 61 70 47 10 B5 FF F7 AF FD FF F7 EF FC 10 BD 10 B5 19 48 00 68 40 F4 70 00 17 49 08 60 17 48 00 68 40 F0 01 00 15 49 08 60 08 46 40 68 14 49 08 40 12 49 48 60 08 46 00 68 12 49 08 40 0F 49 08 60 08 46 00 68 20 F4 80 20 08 60 08 46 40 68 0D 49 08 40 09 49 48 60 08 46 00 6B 0B 49 08 40 06 49 08 63 4F F4 1F 00 88 60 FF F7 08 FF 08 48 01 49 80 39 08 60 10 BD 88 ED 00 E0 00 10 02 40 0C 00 FF E8 FF FF F6 FE FF FF 00 17 00 FF FE FE 00 40 00 08 10 B5 40 21 05 48 00 F0 2C F8 01 28 05 D1 00 F0 39 F8 40 21 01 48 00 F0 21 F8 10 BD 00 04 00 40 F3 E9 02 04 FB 10 B5 01 21 05 48 00 F0 1C F8 01 28 05 D1 00 F0 19 FC 01 21 01 48 00 F0 11 F8 10 BD 00 08 00 40 10 B5 01 21 04 48 00 F0 0C F8 01 28 03 D1 01 21 01 48 00 F0 03 F8 10 BD 00 20 00 40 CA 43 02 82 70 47 30 B5 02 46 00 20 00 23 00 24 15 8A 05 EA 01 03 95 89 05 EA 01 04 13 B1 0C B1 01 20 00 E0 00 20 30 BD 01 20 70 47 10 B5 40 F2 25 51 09 48 00 F0 3A F8 01 28 0C D1 40 F2 25 51 05 48 00 F0 0B F8 04 48 00 F0 EC F8 C4 B2 20 46 00 F0 76 FA 00 BF 10 BD 00 38 01 40 10 B5 00 22 00 23 40 F6 6A 14 A1 42 00 D1 00 BF 0A 12 01 24 94 40 A3 B2 DC 43 04 80 10 BD 21 B1 82 89 42 F4 00 52 82 81 04 E0 82 89 4D F6 FF 73 1A 40 82 81 70 47 02 46 00 20 B1 F5 00 7F 00 D1 00 BF 13 88 0B 40 0B B1 01 20 00 E0 00 20 70 47 70 B5 02 46 00 24 00 23 00 25 00 20 40 F6 6A 16 B1 42 00 D1 00 BF C1 F3 42 15 01 F0 1F 03 01 26 06 FA 03 F3 01 2D 02 D1 96 89 33 40 06 E0 02 2D 02 D1 16 8A 33 40 01 E0 96 8A 33 40 0C 12 01 26 06 FA 04 F4 16 88 34 40 13 B1 0C B1 01 20 00 E0 00 20 70 BD F0 B5 03 46 00 24 00 26 00 25 00 20 40 F6 6A 17 B9 42 00 D1 00 BF 18 46 C1 F3 42 14 01 F0 1F 06 01 27 07 FA 06 F5 01 2C 01 D1 0C 30 04 E0 02 2C 01 D1 10 30 00 E0 14 30 1A B1 07 68 2F 43 07 60 02 E0 07 68 AF 43 07 60 F0 BD 00 00 2D E9 F0 47 86 B0 05 46 0E 46 00 24 A2 46 00 BF A1 46 00 27 B0 89 00 B1 00 BF 2F 46 2C 8A 4C F6 FF 70 04 40 F0 88 04 43 2C 82 AC 89 4E F6 F3 10 04 40 B0 88 31 89 08 43 71 89 08 43 04 43 AC 81 AC 8A 4F F6 FF 40 04 40 B0 89 04 43 AC 82 01 A8 FF F7 00 FD 1F 48 87 42 02 D1 DD F8 10 A0 01 E0 DD F8 0C A0 A8 89 00 F4 00 40 40 B1 0A EB CA 00 00 EB 0A 10 31 68 49 00 B0 FB F1 F8 07 E0 0A EB CA 00 00 EB 0A 10 31 68 89 00 B0 FB F1 F8 64 20 B8 FB F0 F0 04 01 20 09 64 21 01 FB 10 89 A8 89 00 F4 00 40 40 B1 32 20 00 EB C9 00 B0 FB F1 F0 00 F0 07 00 04 43 08 E0 32 20 00 EB 09 10 64 21 B0 FB F1 F0 00 F0 0F 00 04 43 2C 81 06 B0 BD E8 F0 87 00 00 00 38 01 40 01 46 88 88 C0 F3 08 00 70 47 C1 F3 08 02 82 80 70 47 00 BF FE E7 00 00 10 B5 86 B0 04 46 01 21 44 F2 04 00 FF F7 9A FC 1A 48 00 68 05 90 05 A9 19 48 FF F7 7B FB 4F F4 80 60 AD F8 14 00 04 20 8D F8 17 00 02 20 8D F8 16 00 05 A9 12 48 FF F7 6D FB 10 4B 1B 1D 0F CB CD E9 03 23 CD E9 01 01 01 94 01 A9 0D 48 FF F7 5F FF 0A 48 14 30 00 68 00 90 68 46 FF F7 FA FB 01 22 40 F2 25 51 07 48 FF F7 2C FF 01 21 05 48 FF F7 E5 FE 01 20 06 B0 10 BD 00 00 08 55 00 08 00 08 01 40 00 38 01 40 10 B5 04 46 20 79 18 B9 20 68 FF F7 B5 FF 00 E0 00 BF 00 BF 01 20 10 BD 0F B4 05 4B 10 B5 03 A9 04 4A 02 98 00 F0 18 F8 10 BC 5D F8 14 FB 00 00 D1 52 00 08 60 00 00 20 02 E0 08 C8 12 1F 08 C1 00 2A FA D1 70 47 70 47 00 20 01 E0 01 C1 12 1F 00 2A FB D1 70 47 00 00 2D E9 FF 4F 8B B0 9A 46 0F 46 05 46 00 26 06 E0 25 28 0B D0 52 46 0D 99 90 47 6D 1C 76 1C 28 78 00 28 F5 D1 0F B0 30 46 BD E8 F0 8F 00 24 A0 46 01 22 60 49 00 E0 04 43 15 F8 01 3F 20 3B 02 FA 03 F0 08 42 F7 D1 28 78 2E 28 17 D1 15 F8 01 0F 44 F0 04 04 2A 28 0E D0 6F F0 2F 02 28 78 A0 F1 30 01 09 29 0A D8 08 EB 88 01 02 EB 41 01 00 EB 01 08 6D 1C F2 E7 57 F8 04 8B 6D 1C 28 78 69 28 3E D0 06 DC 00 28 CD D0 63 28 0B D0 64 28 04 D1 36 E0 73 28 10 D0 75 28 4B D0 52 46 0D 99 90 47 76 1C 85 E0 17 F8 04 0B 81 9F 02 05 FA 8D F8 00 00 00 20 8D F8 01 00 E9 46 01 20 03 E0 57 F8 04 9B 4F F0 FF 30 61 07 4F F0 00 04 01 D4 0A E0 64 1C 44 45 0D DA 84 42 FA DB 19 F8 04 10 00 29 F6 D1 06 E0 64 1C 84 42 FC DB 19 F8 04 10 00 29 F8 D1 26 44 04 E0 19 F8 01 0B 52 46 0D 99 90 47 64 1E F8 D2 57 E0 01 CF 4F F0 0A 0B 00 28 02 DA 40 42 2D 21 02 E0 21 05 04 D5 2B 21 8D F8 24 10 01 21 03 E0 E1 07 05 D0 20 21 F7 E7 0D F1 20 09 08 91 0C E0 00 21 F9 E7 01 CF 4F F0 0A 0B F9 E7 59 46 FF F7 EC F8 01 F1 30 02 09 F8 01 2D 00 28 F6 D1 AD EB 09 00 00 F1 20 0B 60 07 01 D4 4F F0 01 08 D8 45 02 DD A8 EB 0B 00 00 E0 00 20 80 46 00 24 06 E0 09 A8 52 46 00 5D 0D 99 90 47 64 1C 76 1C 08 98 84 42 F5 DB 04 E0 30 20 52 46 0D 99 90 47 76 1C B8 F1 00 01 A8 F1 01 08 F5 DC 05 E0 19 F8 01 0B 52 46 0D 99 90 47 76 1C BB F1 00 01 AB F1 01 0B F4 DC 6D 1C 34 E7 09 28 01 00 10 B5 04 46 34 B9 0D 4A 0D A1 0F A0 FF F7 FC FE 00 BF FE E7 60 68 10 B1 13 48 00 68 08 B9 00 20 10 BD 11 48 00 68 80 47 61 68 08 44 A0 60 01 20 20 70 00 20 60 70 01 20 F2 E7 00 00 BE 55 00 08 74 69 6D 65 72 00 00 00 28 25 73 29 20 68 61 73 20 61 73 73 65 72 74 20 66 61 69 6C 65 64 20 61 74 20 25 73 2E 0A 00 00 54 00 00 20 10 B5 04 46 3D 48 00 78 30 B1 01 28 0A D0 02 28 18 D0 03 28 2A D1 25 E0 61 2C 02 D1 01 20 37 49 08 70 24 E0 74 2C 03 D1 02 20 34 49 08 70 08 E0 61 2C 03 D1 01 20 31 49 08 70 02 E0 00 20 2F 49 08 70 14 E0 2B 2C 03 D1 03 20 2C 49 08 70 08 E0 61 2C 03 D1 01 20 29 49 08 70 02 E0 00 20 27 49 08 70 04 E0 04 20 25 49 08 70 00 E0 00 BF 00 BF 22 48 00 78 04 28 3F D1 21 48 00 78 1E 28 17 DB 00 20 1F 49 08 70 09 E0 00 20 1E 49 1C 4A 12 78 88 54 1B 48 00 78 40 1C 19 49 08 70 18 48 00 78 1E 28 F1 DB 00 20 15 49 08 70 15 49 08 70 10 BD 0D 2C 18 D1 09 E0 00 20 12 49 11 4A 12 78 88 54 0F 48 00 78 40 1C 0E 49 08 70 0D 48 00 78 1E 28 F1 DB 2C 21 0B 48 FF F7 CD F8 00 20 07 49 08 70 07 49 08 70 E3 E7 07 48 05 49 09 78 44 54 04 48 00 78 40 1C 02 49 08 70 00 BF D8 E7 40 00 00 20 41 00 00 20 20 00 00 20 70 B5 05 46 28 46 FE F7 B1 FF 14 28 00 D9 70 BD 00 24 11 E0 C4 EB C4 00 0B 4A 02 EB 80 01 28 46 FE F7 AB FF 30 B9 C4 EB C4 01 07 4A 02 EB 81 01 88 69 80 47 60 1C C4 B2 03 48 90 F8 A4 01 A0 42 E8 DC 00 BF E3 E7 00 00 6C 00 00 20 70 B5 04 46 0E 46 FF F7 29 F9 05 46 A1 B2 0C 48 FF F7 C3 FD 00 BF 0A E0 64 21 28 46 FF F7 2C F9 01 28 04 D1 61 22 07 49 07 A0 FF F7 31 F9 40 21 03 48 FF F7 E4 FC 00 28 EE D0 00 BF 20 46 70 BD 00 38 01 40 30 55 00 08 2E 2E 5C 2E 2E 5C 50 75 62 6C 69 63 43 6F 64 65 5C 53 6F 75 72 63 65 5C 55 73 61 72 74 2E 63 00 FE F7 C4 FF 05 48 00 F0 45 F8 06 E0 04 A0 FF F7 E7 FD 4F F4 7A 70 FF F7 CF F8 F7 E7 A5 46 00 08 61 70 70 34 0D 0A 00 00 F0 B5 0B 30 15 4D 20 F0 07 01 00 24 14 4A 0F E0 03 68 8B 42 0B D3 8B 42 05 D9 5E 1A 43 18 47 68 C3 E9 00 67 00 E0 43 68 13 60 02 C0 04 E0 02 1D 10 68 00 28 EC D1 20 46 00 28 02 D1 28 68 08 B1 00 20 F0 BD 06 4A 07 48 10 60 07 4A 12 1A 22 F0 07 02 C0 E9 00 24 01 20 28 60 D7 E7 68 00 00 20 64 00 00 20 3C 02 00 20 38 16 00 20 70 B5 05 46 35 B9 0D 4A 0D A1 11 A0 FF F7 9E FD 00 BF FE E7 18 20 FF F7 BD FF 04 46 0C B9 00 20 70 BD 13 48 04 60 00 20 11 49 09 68 C8 60 10 49 09 68 08 61 79 C1 02 06 F9 0F 48 05 60 01 20 F1 E7 6D 55 00 08 67 65 74 5F 74 69 63 6B 5F 66 75 6E 63 00 00 00 28 25 73 29 20 68 61 73 20 61 73 73 65 72 74 20 66 61 69 6C 65 64 20 61 74 20 25 73 2E 0A 00 00 58 00 00 20 54 00 00 20 10 B5 00 24 14 48 00 68 18 B1 13 48 00 68 04 69 01 E0 00 20 10 BD 1A E0 20 78 B8 B1 0F 48 00 68 80 47 A1 68 40 1A 6F F0 00 41 88 42 0E D2 00 20 20 70 02 20 60 70 A0 78 01 28 02 D1 20 46 00 F0 0F F8 60 69 10 B1 20 46 61 69 88 47 24 69 00 2C E2 D1 01 20 DE E7 00 00 58 00 00 20 54 00 00 20 70 B5 04 46 34 B9 06 4A 06 A1 08 A0 FF F7 32 FD 00 BF FE E7 20 46 FF F7 29 FE 05 46 28 46 70 BD 07 56 00 08 74 69 6D 65 72 00 00 00 28 25 73 29 20 68 61 73 20 61 73 73 65 72 74 20 66 61 69 6C 65 64 20 61 74 20 25 73 2E 0A 00 00 01 02 03 04 06 07 08 09 02 04 06 08 02 0C 08 10 60 E3 16 00 00 00 00 00 00 02 02 18 00 00 00 00 00 00 00 00 00 00 0C 00 00 00 00 00 25 00 01 01 55 73 61 72 74 31 49 6E 74 48 61 6E 64 6C 65 00 66 70 75 74 63 00 5F 74 6B 5F 74 69 6D 65 72 5F 66 69 6E 64 5F 6E 6F 64 65 5F 74 61 69 6C 00 5F 74 6B 5F 74 69 6D 65 72 5F 69 6E 73 65 72 74 5F 6E 6F 64 65 5F 74 6F 5F 6C 69 73 74 00 74 6B 5F 74 69 6D 65 72 5F 66 75 6E 63 5F 69 6E 69 74 00 74 6B 5F 74 69 6D 65 72 5F 69 6E 69 74 00 74 6B 5F 74 69 6D 65 72 5F 64 65 74 61 63 68 00 74 6B 5F 74 69 6D 65 72 5F 63 72 65 61 74 65 00 74 6B 5F 74 69 6D 65 72 5F 64 65 6C 65 74 65 00 5F 74 6B 5F 74 69 6D 65 72 5F 73 65 74 5F 73 74 61 72 74 5F 70 61 72 61 6D 00 74 6B 5F 74 69 6D 65 72 5F 73 74 61 72 74 00 74 6B 5F 74 69 6D 65 72 5F 73 74 6F 70 00 74 6B 5F 74 69 6D 65 72 5F 63 6F 6E 74 69 6E 75 65 00 74 6B 5F 74 69 6D 65 72 5F 72 65 73 74 61 72 74 00 74 6B 5F 74 69 6D 65 72 5F 67 65 74 5F 6D 6F 64 65 00 74 6B 5F 74 69 6D 65 72 5F 67 65 74 5F 73 74 61 74 65 00 00 00 00 60 56 00 08 00 00 00 20 6C 00 00 00 38 4F 00 08 CC 56 00 08 6C 00 00 20 CC 29 00 00 48 4F 00 08 00 1C 4E 0E 00 00 00 00 00 00 00 00 01 02 03 04 06 07 08 09 00 00 00 00 00 00 00 00 00 00 00 00 E8 BE 93 E5 85 A5 61 74 2B 2E 2E 2E 2E 0D 0A 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 2D 45 00 08 00 00 00 00 00 00 00 00 C1 42 00 08 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A 1A B5 92                 04               04 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,78 +476,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EA0B0F-E306-4FBF-8B1C-1784F0B7F9C8}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
